--- a/SCBAA/2016/Region 4A.xlsx
+++ b/SCBAA/2016/Region 4A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA2A9A-28A8-4EDD-B90C-47B8040329F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43DCD1-0882-4E12-8602-20F406362D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="570" windowWidth="14625" windowHeight="12540" tabRatio="927" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14625" windowHeight="12540" tabRatio="927" firstSheet="7" activeTab="7" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipolo" sheetId="13" r:id="rId1"/>
@@ -20,30 +20,38 @@
     <sheet name="Cabuyao" sheetId="41" r:id="rId5"/>
     <sheet name="Calamba" sheetId="42" r:id="rId6"/>
     <sheet name="Cavite" sheetId="43" r:id="rId7"/>
-    <sheet name="Dasmariñas" sheetId="44" r:id="rId8"/>
-    <sheet name="General Trias" sheetId="45" r:id="rId9"/>
-    <sheet name="Imus" sheetId="46" r:id="rId10"/>
-    <sheet name="Lipa" sheetId="47" r:id="rId11"/>
-    <sheet name="Lucena" sheetId="48" r:id="rId12"/>
-    <sheet name="San Pablo" sheetId="49" r:id="rId13"/>
-    <sheet name="San Pedro" sheetId="50" r:id="rId14"/>
-    <sheet name="Santa Rosa" sheetId="51" r:id="rId15"/>
-    <sheet name="Tagaytay" sheetId="52" r:id="rId16"/>
-    <sheet name="Tanauan" sheetId="53" r:id="rId17"/>
-    <sheet name="Tayabas" sheetId="54" r:id="rId18"/>
-    <sheet name="Trece Martires" sheetId="55" r:id="rId19"/>
+    <sheet name="Santo Tomas" sheetId="56" r:id="rId8"/>
+    <sheet name="Dasmariñas" sheetId="44" r:id="rId9"/>
+    <sheet name="General Trias" sheetId="45" r:id="rId10"/>
+    <sheet name="Imus" sheetId="46" r:id="rId11"/>
+    <sheet name="Lipa" sheetId="47" r:id="rId12"/>
+    <sheet name="Lucena" sheetId="48" r:id="rId13"/>
+    <sheet name="San Pablo" sheetId="49" r:id="rId14"/>
+    <sheet name="San Pedro" sheetId="50" r:id="rId15"/>
+    <sheet name="Santa Rosa" sheetId="51" r:id="rId16"/>
+    <sheet name="Tagaytay" sheetId="52" r:id="rId17"/>
+    <sheet name="Tanauan" sheetId="53" r:id="rId18"/>
+    <sheet name="Tayabas" sheetId="54" r:id="rId19"/>
+    <sheet name="Trece Martires" sheetId="55" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="84">
   <si>
     <t>STATEMENT OF COMPARISON OF BUDGET AND ACTUAL AMOUNTS</t>
   </si>
@@ -293,6 +301,9 @@
   <si>
     <t>CITY OF SANTA ROSA</t>
   </si>
+  <si>
+    <t>CITY OF SANTO TOMAS</t>
+  </si>
 </sst>
 </file>
 
@@ -538,7 +549,7 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -644,6 +655,9 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E6C5C4-4851-4501-8CBC-46F97AF0BA09}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -996,54 +1010,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -1057,22 +1071,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2172,6 +2186,1201 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0F7384-A8E5-4CF2-BFC2-C5CFED8BDA83}">
+  <dimension ref="A1:I112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="22">
+        <v>97623667.239999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="22">
+        <v>207755472.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="18">
+        <v>98129538.200000003</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="8">
+        <f>SUM(E11:E13)</f>
+        <v>403508677.84999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="22">
+        <v>75665993.890000001</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="22">
+        <v>23256805.41</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3179874.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="8">
+        <f>SUM(E16:E18)</f>
+        <v>102102673.39999999</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="22">
+        <v>538512338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="22">
+        <v>251209287.80000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="22">
+        <v>1674991.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="8">
+        <f>SUM(E14,E19,E21:E36)</f>
+        <v>1297007968.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="22">
+        <v>161268988.52000001</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="22">
+        <v>502794902.24000001</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="22">
+        <v>208805425.83000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1352554.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="22">
+        <v>34266649.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="22">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="22">
+        <v>23464835.510000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="22">
+        <v>2349618.27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="22">
+        <v>22258613.539999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="22">
+        <v>1749286.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="22">
+        <v>116078</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="22">
+        <v>19013858.48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="22">
+        <v>11975183.710000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="22">
+        <v>2087442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="22">
+        <v>1277417.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="22">
+        <v>4146571.62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="22">
+        <v>313909.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="22">
+        <v>66969649.619999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="22">
+        <v>2940810.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="27"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3815409.59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="22">
+        <v>11537165.390000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="8">
+        <f>SUM(E41:E92)</f>
+        <v>1113504370.7099998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="1"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="35">
+        <v>0</v>
+      </c>
+      <c r="F96" s="33"/>
+      <c r="G96" s="19"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="19"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="14"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="16">
+        <f>SUM(E95:E110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="12">
+        <f>SUM(E93,E111)</f>
+        <v>1113504370.7099998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815E48D1-CD66-4EFE-B6FE-B7538BA85DB0}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -2189,54 +3398,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -2250,22 +3459,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -3366,7 +4575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9897A4-ABBE-4151-A6E3-6800086FE31D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -3384,54 +4593,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -3445,22 +4654,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -4562,7 +5771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104792C3-84C6-418D-9D17-B636DF11913C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -4580,54 +5789,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -4641,22 +5850,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -5756,7 +6965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBE5BCA-2DDE-436F-B0F0-65DF6648169A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -5774,54 +6983,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -5835,22 +7044,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -6950,7 +8159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106E95D-15E7-4324-B7C9-1548863575E8}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -6968,54 +8177,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -7029,22 +8238,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -8144,7 +9353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA469606-A14A-4AA9-A863-EEEA364C19DE}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -8162,54 +9371,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -8223,22 +9432,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -9338,7 +10547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE95D82-5553-4687-9F06-4B4F6BE9EA89}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -9356,54 +10565,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -9417,22 +10626,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -10532,7 +11741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB95E5E7-51D1-4352-86AA-C085AAA400D8}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -10550,54 +11759,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -10611,22 +11820,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -11725,7 +12934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343E5633-84B3-4F02-BCE3-5B53F9930B1D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -11743,54 +12952,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -11804,22 +13013,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -12904,1200 +14113,6 @@
       <c r="E112" s="12">
         <f>SUM(E93,E111)</f>
         <v>473048476.6699999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:E7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70875E37-A061-4B91-AE1B-15B93574B8CD}">
-  <dimension ref="A1:I112"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="4.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="39">
-        <v>93309610.260000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="39">
-        <v>91751635.540000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="39">
-        <v>8452745.3100000005</v>
-      </c>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
-        <v>193513991.11000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="39">
-        <v>21920904.279999997</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="39">
-        <v>37038130.860000007</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="39">
-        <v>12323600.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
-        <v>71282635.469999999</v>
-      </c>
-      <c r="F19" s="41"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="39">
-        <v>329647784</v>
-      </c>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="39">
-        <v>6642606.4000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="27">
-        <v>169913.39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="39">
-        <v>125330712.73999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
-        <v>726587643.11000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="39">
-        <v>104358041.12</v>
-      </c>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="39">
-        <v>153963725.18000001</v>
-      </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="39">
-        <v>33863475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="39">
-        <v>6111320.96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="39">
-        <v>8402070</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="39">
-        <v>17674400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="39">
-        <v>27390473.460000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="39">
-        <v>34188449.539999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="39">
-        <v>3636940</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="39">
-        <v>28589947.84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="39">
-        <v>16270617.15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="39">
-        <v>1229500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="39"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="39">
-        <v>5108376.83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E78" s="39">
-        <v>1723943.62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="39">
-        <v>8170100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E81" s="39">
-        <v>11995522.35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="39">
-        <v>38563560</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E87" s="39">
-        <v>881500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="39">
-        <v>5627814.9800000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="39"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E92" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
-        <v>507749778.02999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="39"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="34"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="39">
-        <v>34451604.479999997</v>
-      </c>
-      <c r="F96" s="33"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="34"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="34"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="39">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="14"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="14"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="44"/>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="16">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
-        <v>35291604.479999997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="12">
-        <f>SUM(E93,E111)</f>
-        <v>543041382.50999999</v>
       </c>
     </row>
   </sheetData>
@@ -14131,54 +14146,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -14192,22 +14207,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -15295,6 +15310,1200 @@
       <c r="E112" s="12">
         <f>SUM(E93,E111)</f>
         <v>1527847740.4800003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70875E37-A061-4B91-AE1B-15B93574B8CD}">
+  <dimension ref="A1:I112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="39">
+        <v>93309610.260000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="39">
+        <v>91751635.540000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="39">
+        <v>8452745.3100000005</v>
+      </c>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="8">
+        <f>SUM(E11:E13)</f>
+        <v>193513991.11000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="39">
+        <v>21920904.279999997</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="39">
+        <v>37038130.860000007</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="39">
+        <v>12323600.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="8">
+        <f>SUM(E16:E18)</f>
+        <v>71282635.469999999</v>
+      </c>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="39">
+        <v>329647784</v>
+      </c>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="39">
+        <v>6642606.4000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="27">
+        <v>169913.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="39">
+        <v>125330712.73999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="8">
+        <f>SUM(E14,E19,E21:E36)</f>
+        <v>726587643.11000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="39">
+        <v>104358041.12</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="39">
+        <v>153963725.18000001</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="39">
+        <v>33863475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="39">
+        <v>6111320.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="39">
+        <v>8402070</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="39">
+        <v>17674400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="39">
+        <v>27390473.460000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="39">
+        <v>34188449.539999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="39">
+        <v>3636940</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="39">
+        <v>28589947.84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="39">
+        <v>16270617.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="39">
+        <v>1229500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="39"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="39">
+        <v>5108376.83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="39">
+        <v>1723943.62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="39">
+        <v>8170100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="39">
+        <v>11995522.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="39">
+        <v>38563560</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="39">
+        <v>881500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="39">
+        <v>5627814.9800000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="39"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="8">
+        <f>SUM(E41:E92)</f>
+        <v>507749778.02999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="39"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="39">
+        <v>34451604.479999997</v>
+      </c>
+      <c r="F96" s="33"/>
+      <c r="G96" s="19"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="39">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="19"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="44"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="16">
+        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
+        <v>35291604.479999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="12">
+        <f>SUM(E93,E111)</f>
+        <v>543041382.50999999</v>
       </c>
     </row>
   </sheetData>
@@ -15328,54 +16537,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -15389,22 +16598,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -16525,54 +17734,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -16586,22 +17795,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -17732,54 +18941,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -17793,22 +19002,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -18929,54 +20138,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -18990,22 +20199,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -20126,54 +21335,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -20187,22 +21396,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -21304,6 +22513,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAC5BD6-5357-447E-9DDB-945F6059C782}">
+  <dimension ref="A1:I112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="8">
+        <f>SUM(E11:E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="8">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="39">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="8">
+        <f>SUM(E14,E19,E21:E36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="39">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="39"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="39"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="8">
+        <f>SUM(E41:E92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="39"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="39">
+        <v>0</v>
+      </c>
+      <c r="F96" s="33"/>
+      <c r="G96" s="19"/>
+      <c r="I96" s="34"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="19"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="44"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="16">
+        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="12">
+        <f>SUM(E93,E111)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3EB5D1-1563-486A-B849-AD365B645DE9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
@@ -21321,54 +23724,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -21382,22 +23785,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -22486,1201 +24889,6 @@
       <c r="E112" s="12">
         <f>SUM(E93,E111)</f>
         <v>229907297.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:E7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0F7384-A8E5-4CF2-BFC2-C5CFED8BDA83}">
-  <dimension ref="A1:I112"/>
-  <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="4.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
-    <col min="6" max="9" width="20.7109375" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="22">
-        <v>97623667.239999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="22">
-        <v>207755472.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="18">
-        <v>98129538.200000003</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
-        <v>403508677.84999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="22">
-        <v>75665993.890000001</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="22">
-        <v>23256805.41</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="23">
-        <v>3179874.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
-        <v>102102673.39999999</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22">
-        <v>538512338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="22">
-        <v>251209287.80000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="22">
-        <v>1674991.65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
-        <v>1297007968.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="22">
-        <v>161268988.52000001</v>
-      </c>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="22">
-        <v>502794902.24000001</v>
-      </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="22">
-        <v>208805425.83000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="22">
-        <v>1352554.54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="22">
-        <v>34266649.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="22">
-        <v>31000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="22">
-        <v>23464835.510000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="22">
-        <v>2349618.27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="22">
-        <v>22258613.539999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="22">
-        <v>1749286.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="22">
-        <v>116078</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="22">
-        <v>19013858.48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="22">
-        <v>11975183.710000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="22">
-        <v>2087442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E78" s="22">
-        <v>1277417.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="22">
-        <v>4146571.62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E81" s="22">
-        <v>313909.95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="22">
-        <v>66969649.619999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="19"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E87" s="22">
-        <v>2940810.35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="27"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" s="22">
-        <v>3815409.59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="22">
-        <v>11537165.390000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E92" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
-        <v>1113504370.7099998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="1"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="34"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="35">
-        <v>0</v>
-      </c>
-      <c r="F96" s="33"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="34"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="34"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="14"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="14"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="14"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="14"/>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="14"/>
-    </row>
-    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="16">
-        <f>SUM(E95:E110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="12">
-        <f>SUM(E93,E111)</f>
-        <v>1113504370.7099998</v>
       </c>
     </row>
   </sheetData>

--- a/SCBAA/2016/Region 4A.xlsx
+++ b/SCBAA/2016/Region 4A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43DCD1-0882-4E12-8602-20F406362D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4378AD-100D-4F83-98C8-5CC05D0C95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14625" windowHeight="12540" tabRatio="927" firstSheet="7" activeTab="7" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" tabRatio="927" firstSheet="5" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipolo" sheetId="13" r:id="rId1"/>
@@ -21321,8 +21321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FD814-C795-41C4-8FA1-F3589C6F09BB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21458,7 +21458,9 @@
       <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -22516,7 +22518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAC5BD6-5357-447E-9DDB-945F6059C782}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
@@ -23710,8 +23712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3EB5D1-1563-486A-B849-AD365B645DE9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23847,7 +23849,9 @@
       <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>

--- a/SCBAA/2016/Region 4A.xlsx
+++ b/SCBAA/2016/Region 4A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4378AD-100D-4F83-98C8-5CC05D0C95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA1BD1-9099-4569-8C56-2BBFF456B7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" tabRatio="927" firstSheet="5" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="2730" yWindow="1530" windowWidth="14880" windowHeight="11070" tabRatio="927" firstSheet="3" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipolo" sheetId="13" r:id="rId1"/>
@@ -549,7 +549,7 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -655,6 +655,9 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,54 +1013,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -1071,22 +1074,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2203,54 +2206,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -2264,22 +2267,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -3398,54 +3401,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -3459,22 +3462,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -4593,54 +4596,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -4654,22 +4657,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -5789,54 +5792,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -5850,22 +5853,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -6983,54 +6986,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -7044,22 +7047,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -8177,54 +8180,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -8238,22 +8241,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -9371,54 +9374,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -9432,22 +9435,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -10565,54 +10568,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -10626,22 +10629,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -11759,54 +11762,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -11820,22 +11823,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -12952,54 +12955,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -13013,22 +13016,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -14146,54 +14149,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -14207,22 +14210,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -15343,54 +15346,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -15404,22 +15407,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -16537,54 +16540,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -16598,22 +16601,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -17720,8 +17723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D799915-1C2F-40C9-A98F-DD2388D323A7}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17734,54 +17737,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -17795,22 +17798,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -17847,7 +17850,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="26">
-        <f>133617111.51+174955501.49</f>
         <v>308572613</v>
       </c>
     </row>
@@ -17870,7 +17872,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="49">
-        <f>12607956.98+7519847.49</f>
         <v>20127804.469999999</v>
       </c>
     </row>
@@ -17882,7 +17883,6 @@
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
         <v>698803092.25</v>
       </c>
     </row>
@@ -17915,7 +17915,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="26">
-        <f>42125163.19+126710.06</f>
         <v>42251873.25</v>
       </c>
       <c r="F17" s="23"/>
@@ -17924,7 +17923,7 @@
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>28</v>
       </c>
@@ -17941,7 +17940,6 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
         <v>79595693.949999988</v>
       </c>
       <c r="F19" s="25"/>
@@ -18133,7 +18131,6 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1798627532.5799999</v>
       </c>
     </row>
@@ -18180,7 +18177,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="26">
-        <f>204206049.27+63162</f>
         <v>204269211.27000001</v>
       </c>
       <c r="F42" s="27"/>
@@ -18193,7 +18189,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="26">
-        <f>442785904.75+48765</f>
         <v>442834669.75</v>
       </c>
       <c r="F43" s="28"/>
@@ -18226,7 +18221,6 @@
         <v>10</v>
       </c>
       <c r="E46" s="26">
-        <f>1722498.39+8470832.78</f>
         <v>10193331.17</v>
       </c>
     </row>
@@ -18238,7 +18232,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="26">
-        <f>5220105.41+25800520.64</f>
         <v>31020626.050000001</v>
       </c>
     </row>
@@ -18250,7 +18243,6 @@
         <v>12</v>
       </c>
       <c r="E48" s="26">
-        <f>697604.91+121554480.31</f>
         <v>122252085.22</v>
       </c>
     </row>
@@ -18563,7 +18555,6 @@
         <v>49</v>
       </c>
       <c r="E78" s="26">
-        <f>3698000+24060146.08</f>
         <v>27758146.079999998</v>
       </c>
     </row>
@@ -18719,7 +18710,6 @@
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>1918518722.77</v>
       </c>
     </row>
@@ -18777,7 +18767,6 @@
         <v>12</v>
       </c>
       <c r="E98" s="26">
-        <f>487122.12+33976269.34</f>
         <v>34463391.460000001</v>
       </c>
     </row>
@@ -18894,7 +18883,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="16">
-        <f>SUM(E95:E110)</f>
         <v>100821353.28</v>
       </c>
     </row>
@@ -18906,7 +18894,6 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="12">
-        <f>SUM(E93,E111)</f>
         <v>2019340076.05</v>
       </c>
     </row>
@@ -18941,54 +18928,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -19002,22 +18989,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -20138,54 +20125,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -20199,22 +20186,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -21321,7 +21308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638FD814-C795-41C4-8FA1-F3589C6F09BB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -21335,54 +21322,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -21396,22 +21383,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -22532,54 +22519,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -22593,22 +22580,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -23713,7 +23700,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23726,54 +23713,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -23787,22 +23774,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -23872,7 +23859,6 @@
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -23913,12 +23899,11 @@
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="36">
-        <f>230000+2294394.96</f>
         <v>2524394.96</v>
       </c>
       <c r="F18" s="23"/>
@@ -23931,7 +23916,6 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
         <v>2524394.96</v>
       </c>
       <c r="F19" s="25"/>
@@ -24123,7 +24107,6 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1057285024.5400001</v>
       </c>
     </row>
@@ -24590,7 +24573,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="35">
-        <f>114302990.15-6795000</f>
         <v>107507990.15000001</v>
       </c>
     </row>
@@ -24704,7 +24686,6 @@
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>124955873.48</v>
       </c>
     </row>
@@ -24736,7 +24717,6 @@
         <v>12</v>
       </c>
       <c r="E96" s="35">
-        <f>40620291.67</f>
         <v>40620291.670000002</v>
       </c>
       <c r="F96" s="33"/>
@@ -24879,7 +24859,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="16">
-        <f>SUM(E95:E110)</f>
         <v>104951423.77000001</v>
       </c>
     </row>
@@ -24891,7 +24870,6 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="12">
-        <f>SUM(E93,E111)</f>
         <v>229907297.25</v>
       </c>
     </row>
@@ -24905,5 +24883,6 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>